--- a/TXT/Reprise_données_Demandes/reprise_de_données-Domaine.xlsx
+++ b/TXT/Reprise_données_Demandes/reprise_de_données-Domaine.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise données Demandes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Demandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99ADAC-9695-453C-95E2-33B812623A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAAE6F-1C6D-426F-AFFC-61F370F64767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
+    <workbookView xWindow="5070" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Domaine" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,44 +53,208 @@
     <t>Remarque</t>
   </si>
   <si>
-    <t>Récup sans transformation. Dans la cible c'est une séquence</t>
-  </si>
-  <si>
     <t>Récup sans transformation.</t>
   </si>
   <si>
     <t>A ne pas rajouter</t>
   </si>
   <si>
-    <t>Domaine (texte court)</t>
-  </si>
-  <si>
     <t xml:space="preserve">image </t>
   </si>
   <si>
     <t xml:space="preserve">Non renseigné </t>
   </si>
   <si>
-    <t>libellé</t>
-  </si>
-  <si>
     <t>T_Domaine</t>
   </si>
   <si>
-    <t>IdDomaine (NuméroAuto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libelle </t>
-  </si>
-  <si>
     <t>TC_Domaine</t>
+  </si>
+  <si>
+    <t>Récupe avec transformation. Dans la cible c'est une séquence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">libDomaine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHAR(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IdDomaine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>libellé text court</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Domaine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>texte court</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +297,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,7 +732,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D24:D25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +740,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,53 +774,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -654,17 +830,6 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>